--- a/spliced/falling/2023-03-21_15-34-35/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-35/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.05105815259351689</v>
+        <v>0.003250675749898542</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.02509637922048548</v>
+        <v>0.03200497691120401</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0663297846913338</v>
+        <v>-0.08288132186446855</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1197514058578581</v>
+        <v>-0.05105815259351689</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3090105539276482</v>
+        <v>-0.02509637922048548</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06041020864532091</v>
+        <v>-0.0663297846913338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.4005748778581615</v>
+        <v>-0.1197514058578581</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7805985297475537</v>
+        <v>-0.3090105539276482</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1577123148100716</v>
+        <v>0.06041020864532091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.6522004490806942</v>
+        <v>-0.4005748778581615</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.329693669364566</v>
+        <v>-0.7805985297475537</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1308778794038864</v>
+        <v>0.1577123148100716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.6102398293358944</v>
+        <v>-0.6522004490806942</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.220246967815219</v>
+        <v>-1.329693669364566</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4809618578070668</v>
+        <v>0.1308778794038864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.04692753723689685</v>
+        <v>-0.6102398293358944</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2711587122508481</v>
+        <v>-1.220246967815219</v>
       </c>
       <c r="C7" t="n">
-        <v>1.261436768940515</v>
+        <v>0.4809618578070668</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2368920927955998</v>
+        <v>-0.04692753723689685</v>
       </c>
       <c r="B8" t="n">
-        <v>2.034886604263666</v>
+        <v>-0.2711587122508481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6732607796078658</v>
+        <v>1.261436768940515</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.7203119397163371</v>
+        <v>0.2368920927955998</v>
       </c>
       <c r="B9" t="n">
-        <v>3.954537868499759</v>
+        <v>2.034886604263666</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.220546166102086</v>
+        <v>0.6732607796078658</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.9733701603753284</v>
+        <v>-0.7203119397163371</v>
       </c>
       <c r="B10" t="n">
-        <v>2.440581185477122</v>
+        <v>3.954537868499759</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.891320841653013</v>
+        <v>-2.220546166102086</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4988514525549754</v>
+        <v>-0.9733701603753284</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8867653551555867</v>
+        <v>2.440581185477122</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.71078631139937</v>
+        <v>-3.891320841653013</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1264272814705268</v>
+        <v>0.4988514525549754</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.447191684019</v>
+        <v>0.8867653551555867</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4622068021978656</v>
+        <v>-1.71078631139937</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.7295694393771054</v>
+        <v>0.1264272814705268</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.004014266388761123</v>
+        <v>-2.447191684019</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09374600010258789</v>
+        <v>-0.4622068021978656</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.1179624412740978</v>
+        <v>-0.7295694393771054</v>
       </c>
       <c r="B14" t="n">
-        <v>1.259269575277969</v>
+        <v>-0.004014266388761123</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1631955632141657</v>
+        <v>0.09374600010258789</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1617193005624273</v>
+        <v>-0.1179624412740978</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.4078179995218952</v>
+        <v>1.259269575277969</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2281727109636559</v>
+        <v>0.1631955632141657</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.124921940267086</v>
+        <v>-0.1617193005624273</v>
       </c>
       <c r="B16" t="n">
-        <v>1.249372124671936</v>
+        <v>-0.4078179995218952</v>
       </c>
       <c r="C16" t="n">
-        <v>1.016479730606079</v>
+        <v>0.2281727109636559</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.4928955077415405</v>
+        <v>-0.124921940267086</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.4476696934018742</v>
+        <v>1.249372124671936</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.9833766732896989</v>
+        <v>1.016479730606079</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.2805471434479678</v>
+        <v>-0.4928955077415405</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4230750912711692</v>
+        <v>-0.4476696934018742</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2188279224293611</v>
+        <v>-0.9833766732896989</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2866266923291341</v>
+        <v>-0.2805471434479678</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4182899764605935</v>
+        <v>0.4230750912711692</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.003992439912898826</v>
+        <v>-0.2188279224293611</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.03713915026968551</v>
+        <v>-0.2866266923291341</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07855436143775912</v>
+        <v>0.4182899764605935</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07685266648020034</v>
+        <v>-0.003992439912898826</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.03008511281084441</v>
+        <v>-0.03713915026968551</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0510363349070151</v>
+        <v>0.07855436143775912</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.07897615255344478</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0188495556690863</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.09346238630158486</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.02356194624943445</v>
+        <v>0.07685266648020034</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-35/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-35/gyroscope_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.003250675749898542</v>
+        <v>-0.05105815259351689</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03200497691120401</v>
+        <v>-0.02509637922048548</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.08288132186446855</v>
+        <v>-0.0663297846913338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.05105815259351689</v>
+        <v>-0.1197514058578581</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.02509637922048548</v>
+        <v>-0.3090105539276482</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0663297846913338</v>
+        <v>0.06041020864532091</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.1197514058578581</v>
+        <v>-0.4005748778581615</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3090105539276482</v>
+        <v>-0.7805985297475537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06041020864532091</v>
+        <v>0.1577123148100716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.4005748778581615</v>
+        <v>-0.6522004490806942</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7805985297475537</v>
+        <v>-1.329693669364566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1577123148100716</v>
+        <v>0.1308778794038864</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.6522004490806942</v>
+        <v>-0.6102398293358944</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.329693669364566</v>
+        <v>-1.220246967815219</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1308778794038864</v>
+        <v>0.4809618578070668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.6102398293358944</v>
+        <v>-0.04692753723689685</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.220246967815219</v>
+        <v>-0.2711587122508481</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4809618578070668</v>
+        <v>1.261436768940515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.04692753723689685</v>
+        <v>0.2368920927955998</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2711587122508481</v>
+        <v>2.034886604263666</v>
       </c>
       <c r="C8" t="n">
-        <v>1.261436768940515</v>
+        <v>0.6732607796078658</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2368920927955998</v>
+        <v>-0.7203119397163371</v>
       </c>
       <c r="B9" t="n">
-        <v>2.034886604263666</v>
+        <v>3.954537868499759</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6732607796078658</v>
+        <v>-2.220546166102086</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.7203119397163371</v>
+        <v>-0.9733701603753284</v>
       </c>
       <c r="B10" t="n">
-        <v>3.954537868499759</v>
+        <v>2.440581185477122</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.220546166102086</v>
+        <v>-3.891320841653013</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.9733701603753284</v>
+        <v>0.4988514525549754</v>
       </c>
       <c r="B11" t="n">
-        <v>2.440581185477122</v>
+        <v>0.8867653551555867</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.891320841653013</v>
+        <v>-1.71078631139937</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.4988514525549754</v>
+        <v>0.1264272814705268</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8867653551555867</v>
+        <v>-2.447191684019</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.71078631139937</v>
+        <v>-0.4622068021978656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1264272814705268</v>
+        <v>-0.7295694393771054</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.447191684019</v>
+        <v>-0.004014266388761123</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.4622068021978656</v>
+        <v>0.09374600010258789</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.7295694393771054</v>
+        <v>-0.1179624412740978</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.004014266388761123</v>
+        <v>1.259269575277969</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09374600010258789</v>
+        <v>0.1631955632141657</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1179624412740978</v>
+        <v>-0.1617193005624273</v>
       </c>
       <c r="B15" t="n">
-        <v>1.259269575277969</v>
+        <v>-0.4078179995218952</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1631955632141657</v>
+        <v>0.2281727109636559</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.1617193005624273</v>
+        <v>-0.124921940267086</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.4078179995218952</v>
+        <v>1.249372124671936</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2281727109636559</v>
+        <v>1.016479730606079</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.124921940267086</v>
+        <v>-0.4928955077415405</v>
       </c>
       <c r="B17" t="n">
-        <v>1.249372124671936</v>
+        <v>-0.4476696934018742</v>
       </c>
       <c r="C17" t="n">
-        <v>1.016479730606079</v>
+        <v>-0.9833766732896989</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.4928955077415405</v>
+        <v>-0.2805471434479678</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.4476696934018742</v>
+        <v>0.4230750912711692</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9833766732896989</v>
+        <v>-0.2188279224293611</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2805471434479678</v>
+        <v>-0.2866266923291341</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4230750912711692</v>
+        <v>0.4182899764605935</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2188279224293611</v>
+        <v>-0.003992439912898826</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2866266923291341</v>
+        <v>-0.03713915026968551</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4182899764605935</v>
+        <v>0.07855436143775912</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.003992439912898826</v>
+        <v>0.07685266648020034</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.03713915026968551</v>
+        <v>0.03008511281084441</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07855436143775912</v>
+        <v>0.0510363349070151</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07685266648020034</v>
+        <v>-0.07897615255344478</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-35/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-35/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.05105815259351689</v>
+        <v>-0.03934990153426188</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.02509637922048548</v>
+        <v>0.01354811775187661</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0663297846913338</v>
+        <v>-0.07257660726706182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1197514058578581</v>
+        <v>-0.02474731490725574</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3090105539276482</v>
+        <v>-0.0707512873091867</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06041020864532091</v>
+        <v>0.004276057793980506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.4005748778581615</v>
+        <v>0.003250675749898542</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7805985297475537</v>
+        <v>0.03200497691120401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1577123148100716</v>
+        <v>-0.08288132186446855</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.6522004490806942</v>
+        <v>-0.05105815259351689</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.329693669364566</v>
+        <v>-0.02509637922048548</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1308778794038864</v>
+        <v>-0.0663297846913338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.6102398293358944</v>
+        <v>-0.1197514058578581</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.220246967815219</v>
+        <v>-0.3090105539276482</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4809618578070668</v>
+        <v>0.06041020864532091</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.04692753723689685</v>
+        <v>-0.4005748778581615</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2711587122508481</v>
+        <v>-0.7805985297475537</v>
       </c>
       <c r="C7" t="n">
-        <v>1.261436768940515</v>
+        <v>0.1577123148100716</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2368920927955998</v>
+        <v>-0.6522004490806942</v>
       </c>
       <c r="B8" t="n">
-        <v>2.034886604263666</v>
+        <v>-1.329693669364566</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6732607796078658</v>
+        <v>0.1308778794038864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.7203119397163371</v>
+        <v>-0.6102398293358944</v>
       </c>
       <c r="B9" t="n">
-        <v>3.954537868499759</v>
+        <v>-1.220246967815219</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.220546166102086</v>
+        <v>0.4809618578070668</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.9733701603753284</v>
+        <v>-0.04692753723689685</v>
       </c>
       <c r="B10" t="n">
-        <v>2.440581185477122</v>
+        <v>-0.2711587122508481</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.891320841653013</v>
+        <v>1.261436768940515</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4988514525549754</v>
+        <v>0.2368920927955998</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8867653551555867</v>
+        <v>2.034886604263666</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.71078631139937</v>
+        <v>0.6732607796078658</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1264272814705268</v>
+        <v>-0.7203119397163371</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.447191684019</v>
+        <v>3.954537868499759</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4622068021978656</v>
+        <v>-2.220546166102086</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.7295694393771054</v>
+        <v>-0.9733701603753284</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.004014266388761123</v>
+        <v>2.440581185477122</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09374600010258789</v>
+        <v>-3.891320841653013</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.1179624412740978</v>
+        <v>0.4988514525549754</v>
       </c>
       <c r="B14" t="n">
-        <v>1.259269575277969</v>
+        <v>0.8867653551555867</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1631955632141657</v>
+        <v>-1.71078631139937</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1617193005624273</v>
+        <v>0.1264272814705268</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.4078179995218952</v>
+        <v>-2.447191684019</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2281727109636559</v>
+        <v>-0.4622068021978656</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.124921940267086</v>
+        <v>-0.7295694393771054</v>
       </c>
       <c r="B16" t="n">
-        <v>1.249372124671936</v>
+        <v>-0.004014266388761123</v>
       </c>
       <c r="C16" t="n">
-        <v>1.016479730606079</v>
+        <v>0.09374600010258789</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.4928955077415405</v>
+        <v>-0.1179624412740978</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.4476696934018742</v>
+        <v>1.259269575277969</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.9833766732896989</v>
+        <v>0.1631955632141657</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.2805471434479678</v>
+        <v>-0.1617193005624273</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4230750912711692</v>
+        <v>-0.4078179995218952</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2188279224293611</v>
+        <v>0.2281727109636559</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2866266923291341</v>
+        <v>-0.124921940267086</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4182899764605935</v>
+        <v>1.249372124671936</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.003992439912898826</v>
+        <v>1.016479730606079</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.03713915026968551</v>
+        <v>-0.4928955077415405</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07855436143775912</v>
+        <v>-0.4476696934018742</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07685266648020034</v>
+        <v>-0.9833766732896989</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.2805471434479678</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4230750912711692</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.2188279224293611</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.2866266923291341</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4182899764605935</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.003992439912898826</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.03713915026968551</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.07855436143775912</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.07685266648020034</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>0.03008511281084441</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>0.0510363349070151</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>-0.07897615255344478</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.0188495556690863</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.09346238630158486</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.02356194624943445</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.1422297873844697</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.01903863499562003</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.03227404815455254</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.08552113210871153</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01936588267562919</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.03527019580914864</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0006981316421711559</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01939497157166284</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.01994038639324046</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.006530440013323374</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.04903648190555104</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.02060942954960315</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.00994837645529994</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.04445499217226397</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.01362811268440311</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.01760600972920647</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0257654253925594</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.005214171284543525</v>
       </c>
     </row>
   </sheetData>
